--- a/data/TestLogs.xlsx
+++ b/data/TestLogs.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:J286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -10125,6 +10125,968 @@
         </is>
       </c>
       <c r="G260" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D261" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>04/29/2025 14:34:09</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>04/29/2025 14:34:36</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D263" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>04/29/2025 14:36:44</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>04/29/2025 14:37:11</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D265" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>04/29/2025 15:10:18</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>04/29/2025 15:10:45</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D267" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:44:31</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:44:57</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D269" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:46:30</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:46:58</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D271" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:49:35</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:49:48</t>
+        </is>
+      </c>
+      <c r="F272" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G272" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D273" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:58:19</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 10:58:47</t>
+        </is>
+      </c>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D275" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:01:29</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:01:59</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:03:38</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:04:03</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D279" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:04:44</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:05:19</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D281" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:17:26</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:18:02</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D283" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:23:35</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:24:01</t>
+        </is>
+      </c>
+      <c r="F284" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G284" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D285" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:25:09</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 11:25:40</t>
+        </is>
+      </c>
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>

--- a/data/TestLogs.xlsx
+++ b/data/TestLogs.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J286"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -11087,6 +11087,1634 @@
         </is>
       </c>
       <c r="G286" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D287" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>04/30/2025 12:47:44</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 12:47:55</t>
+        </is>
+      </c>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D289" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>04/30/2025 12:48:52</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 12:49:00</t>
+        </is>
+      </c>
+      <c r="F290" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G290" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D291" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>04/30/2025 12:55:45</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 12:55:49</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D293" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:42:38</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:42:48</t>
+        </is>
+      </c>
+      <c r="F294" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G294" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D295" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:44:35</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:44:46</t>
+        </is>
+      </c>
+      <c r="F296" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G296" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D297" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:45:30</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:45:39</t>
+        </is>
+      </c>
+      <c r="F298" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G298" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D299" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:49:43</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C300" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:49:54</t>
+        </is>
+      </c>
+      <c r="F300" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G300" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D301" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:53:17</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:53:26</t>
+        </is>
+      </c>
+      <c r="F302" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G302" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D303" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:55:30</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C304" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:55:41</t>
+        </is>
+      </c>
+      <c r="F304" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G304" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D305" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:59:06</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C306" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 13:59:16</t>
+        </is>
+      </c>
+      <c r="F306" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G306" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D307" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:03:04</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C308" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:03:13</t>
+        </is>
+      </c>
+      <c r="F308" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G308" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D309" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:12:21</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:12:33</t>
+        </is>
+      </c>
+      <c r="F310" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G310" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D311" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:13:36</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:13:48</t>
+        </is>
+      </c>
+      <c r="F312" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G312" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D313" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:15:21</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:15:33</t>
+        </is>
+      </c>
+      <c r="F314" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G314" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D315" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:16:54</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:17:06</t>
+        </is>
+      </c>
+      <c r="F316" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G316" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D317" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:17:51</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:18:03</t>
+        </is>
+      </c>
+      <c r="F318" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G318" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D319" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:20:05</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:20:17</t>
+        </is>
+      </c>
+      <c r="F320" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G320" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D321" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:21:38</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:21:51</t>
+        </is>
+      </c>
+      <c r="F322" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G322" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D323" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:22:49</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:23:00</t>
+        </is>
+      </c>
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D325" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:23:38</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:23:50</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D327" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:24:26</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="inlineStr">
+        <is>
+          <t>04/30/2025 14:24:47</t>
+        </is>
+      </c>
+      <c r="F328" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G328" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+      <c r="D329" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>05/01/2025 11:51:45</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Navigating to base URL</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>https://automationpanda.com/2021/12/29/want-to-practice-test-automation-try-these-demo-sites/</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr">
+        <is>
+          <t>Close Driver</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
+        <is>
+          <t>05/01/2025 11:52:04</t>
+        </is>
+      </c>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>Closing Driver</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
